--- a/Diccionario de datos .xlsx
+++ b/Diccionario de datos .xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\Database-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A383CB-6A35-4A2D-95C6-C1C484DAEC23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10C871F-853E-4C50-9B54-A801EDA2C367}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="87">
   <si>
     <t>Llave</t>
   </si>
@@ -135,9 +135,6 @@
     <t>Numero Total de los alumnos por clase</t>
   </si>
   <si>
-    <t>actividad_cod_af</t>
-  </si>
-  <si>
     <t>salas_fk</t>
   </si>
   <si>
@@ -150,9 +147,6 @@
     <t>Datetime</t>
   </si>
   <si>
-    <t>Fecha y hora en la que se realizara la clase</t>
-  </si>
-  <si>
     <t>Valor del costo de cada clase</t>
   </si>
   <si>
@@ -196,13 +190,115 @@
   </si>
   <si>
     <t>contraseña_usuario</t>
+  </si>
+  <si>
+    <t>Tabla de Actividades</t>
+  </si>
+  <si>
+    <t>Tabla Salas</t>
+  </si>
+  <si>
+    <t>Tabla Clases</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>Tabla alumnos</t>
+  </si>
+  <si>
+    <t>Tabla clase de alumnos</t>
+  </si>
+  <si>
+    <t>Tabla Personas</t>
+  </si>
+  <si>
+    <t>Tabla Usuarios</t>
+  </si>
+  <si>
+    <t>Historial_id</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>actividad_cod_fk</t>
+  </si>
+  <si>
+    <t>Numero de identificacion de la Tabla de salas para la implementacion de la Tabla de clases</t>
+  </si>
+  <si>
+    <t>Numero de identificacion de la Tabla de Actividades para la implementacion de la Tabla de clases</t>
+  </si>
+  <si>
+    <t>Numero de Identificacion de la Clase de Alumnos</t>
+  </si>
+  <si>
+    <t>Numero de identificacion de la Tabla de Alumnos para la implementacion de la Tabla de Clase de Alumnos</t>
+  </si>
+  <si>
+    <t>Fecha y hora en la que se realizara la clase y Principal Idenficador de la Tabla Clases</t>
+  </si>
+  <si>
+    <t>Fecha y hora de la Tabla de Clases para la implementacion de la Tabla de Clase de Alumnos</t>
+  </si>
+  <si>
+    <t>Numero de identificacion de la Tabla de Actividades para la implementacion de la Tabla de Clase de Alumnos</t>
+  </si>
+  <si>
+    <t>Numero de identificacion de la Tabla de Personas para la implementacion de la Tabla de Alumnos</t>
+  </si>
+  <si>
+    <t>Cedula de Cada Persona</t>
+  </si>
+  <si>
+    <t>Nombre de Cada Persona</t>
+  </si>
+  <si>
+    <t>Apellido1 de Cada Persona</t>
+  </si>
+  <si>
+    <t>Apellido2 de Cada Persona</t>
+  </si>
+  <si>
+    <t>Fecha_Naci de Cada Persona</t>
+  </si>
+  <si>
+    <t>Direccion de Cada Persona</t>
+  </si>
+  <si>
+    <t>Contraseña de Cada Usuario</t>
+  </si>
+  <si>
+    <t>Numero de identificacion de la Tabla de Personas para la implementacion de la Tabla de Usuarios</t>
+  </si>
+  <si>
+    <t>Numero de identificacion de la Tabla Usuarios</t>
+  </si>
+  <si>
+    <t>Fecha de Cada una las Gestiones del Proyecto con la Hora actual de dicha accion</t>
+  </si>
+  <si>
+    <t>Nos describe que fue la accion que ocurrio en el momento</t>
+  </si>
+  <si>
+    <t>Tabla Historial Triggers</t>
+  </si>
+  <si>
+    <t>Numero de identificacion de la Tabla Historial Tiggers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,8 +343,23 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,8 +382,20 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -310,28 +433,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="60% - Accent4" xfId="3" builtinId="44"/>
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Heading 1" xfId="4" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -552,7 +708,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -562,7 +720,7 @@
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="29.125" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="74.125" customWidth="1"/>
+    <col min="7" max="7" width="82.5" customWidth="1"/>
     <col min="8" max="26" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -589,566 +747,409 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E5" s="6">
         <v>11</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="6" t="s">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E6" s="6">
         <v>50</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="6">
-        <v>200</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="8">
-        <v>15</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="7">
-        <v>20</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="E7" s="6">
+        <v>200</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="G7" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="6">
-        <v>20</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="6">
-        <v>8</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="6">
-        <v>8</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>39</v>
+      <c r="E11" s="8">
+        <v>15</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="7">
+        <v>50</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="6">
+        <v>20</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="6">
+        <v>8</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="6">
+        <v>12</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="6">
+        <v>15</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E20" s="5">
         <v>15</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G20" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="5">
+        <v>11</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="8">
+        <v>11</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="C26" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="8">
+        <v>12</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="B27" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="8">
+        <v>12</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D28" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="5">
-        <v>15</v>
-      </c>
-      <c r="F13" s="6" t="s">
+      <c r="E28" s="8">
+        <v>11</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="5">
-        <v>11</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="8">
-        <v>11</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="8">
-        <v>12</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="8">
-        <v>8</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="8">
-        <v>11</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="6">
-        <v>11</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="6">
-        <v>11</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="7">
-        <v>11</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="7">
-        <v>12</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="7">
-        <v>20</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="7"/>
-    </row>
-    <row r="27" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="7">
-        <v>20</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="7">
-        <v>20</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" s="7"/>
+      <c r="G28" s="8" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="29" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
-      <c r="B29" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="7">
-        <v>8</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="7">
-        <v>200</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" s="7"/>
-    </row>
-    <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-    </row>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="10"/>
+    </row>
+    <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>8</v>
@@ -1162,19 +1163,21 @@
       <c r="F32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="6"/>
+      <c r="G32" s="6" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="33" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>53</v>
+      <c r="A33" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E33" s="6">
@@ -1183,57 +1186,324 @@
       <c r="F33" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="5" t="s">
+      <c r="G33" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="9"/>
+    </row>
+    <row r="36" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="7">
+        <v>11</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D38" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E38" s="7">
+        <v>12</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="7">
+        <v>20</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="7">
+        <v>20</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="7">
+        <v>20</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="7">
+        <v>12</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="7">
+        <v>200</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="9"/>
+    </row>
+    <row r="46" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="C47" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="6">
+        <v>11</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="6">
+        <v>11</v>
+      </c>
+      <c r="F48" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G34" s="5"/>
-    </row>
-    <row r="35" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="G48" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="5">
+        <v>50</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="9"/>
+    </row>
+    <row r="52" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="7">
+        <v>11</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+      <c r="B54" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="7">
+        <v>12</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+      <c r="B55" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="7">
+        <v>50</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2171,6 +2441,16 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B35:C35"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/Diccionario de datos .xlsx
+++ b/Diccionario de datos .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\Database-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10C871F-853E-4C50-9B54-A801EDA2C367}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87738D8E-2AE0-4748-95F5-3792D5ABD598}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7155" yWindow="3705" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -473,15 +473,15 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="60% - Accent4" xfId="3" builtinId="44"/>
@@ -708,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -719,7 +719,7 @@
     <col min="3" max="3" width="17.25" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="29.125" customWidth="1"/>
-    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="6" max="6" width="25.125" customWidth="1"/>
     <col min="7" max="7" width="82.5" customWidth="1"/>
     <col min="8" max="26" width="9.375" customWidth="1"/>
   </cols>
@@ -749,10 +749,10 @@
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="12"/>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -822,10 +822,10 @@
     </row>
     <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="9"/>
+      <c r="C9" s="12"/>
     </row>
     <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -882,10 +882,10 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="12"/>
     </row>
     <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -990,8 +990,8 @@
       <c r="E20" s="5">
         <v>15</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>17</v>
+      <c r="F20" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>66</v>
@@ -1013,8 +1013,8 @@
       <c r="E21" s="5">
         <v>11</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>17</v>
+      <c r="F21" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>67</v>
@@ -1030,10 +1030,10 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="9"/>
+      <c r="C23" s="12"/>
     </row>
     <row r="24" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1076,7 +1076,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>69</v>
@@ -1099,7 +1099,7 @@
         <v>12</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>71</v>
@@ -1122,7 +1122,7 @@
         <v>11</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>72</v>
@@ -1138,14 +1138,14 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="10"/>
+      <c r="C30" s="13"/>
     </row>
     <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -1168,7 +1168,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -1183,8 +1183,8 @@
       <c r="E33" s="6">
         <v>11</v>
       </c>
-      <c r="F33" s="6" t="s">
-        <v>17</v>
+      <c r="F33" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>73</v>
@@ -1192,10 +1192,10 @@
     </row>
     <row r="34" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="9"/>
+      <c r="C35" s="12"/>
     </row>
     <row r="36" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="37" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1349,14 +1349,14 @@
     </row>
     <row r="44" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="45" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="9"/>
+      <c r="C45" s="12"/>
     </row>
     <row r="46" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="47" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -1379,7 +1379,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="10" t="s">
         <v>51</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -1394,8 +1394,8 @@
       <c r="E48" s="6">
         <v>11</v>
       </c>
-      <c r="F48" s="6" t="s">
-        <v>17</v>
+      <c r="F48" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>81</v>
@@ -1403,10 +1403,10 @@
     </row>
     <row r="49" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="5" t="s">
@@ -1424,10 +1424,10 @@
     </row>
     <row r="50" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C51" s="9"/>
+      <c r="C51" s="12"/>
     </row>
     <row r="52" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="53" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
